--- a/PaperNeural/ResultsControlFinal.xlsx
+++ b/PaperNeural/ResultsControlFinal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
     <sheet name="GrandConfusion" sheetId="3" r:id="rId3"/>
+    <sheet name="TP_GM_stats" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$O$1</definedName>
@@ -31,8 +32,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fábio Henrique Monteiro Oliveira</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fábio Henrique Monteiro Oliveira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+True positive general mean of all tasks and all datasets.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fábio Henrique Monteiro Oliveira</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fábio Henrique Monteiro Oliveira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+ 1 - Test to check normallity: One-sample Kolmogorov-Smirnov test. Conclusion: all data are not normal.
+2 - Mann-Whitney U
+    1. compares two independent groups on a DV measure with rank-ordered (ordinal) data.
+    2. nonparametric equivalent to a t-test.
+3 - Check step 2 with Adriano O.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -594,12 +663,81 @@
   <si>
     <t>Output Class</t>
   </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Sammons</t>
+  </si>
+  <si>
+    <t>t-SNE (perp 17-51)</t>
+  </si>
+  <si>
+    <t>The Wilcoxon rank sum test is equivalent to the Mann-Whitney U-test.</t>
+  </si>
+  <si>
+    <t>t-SNE</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DBS</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,6 +784,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -667,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -675,8 +869,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -692,26 +966,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -719,6 +1071,22 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -726,6 +1094,22 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,12 +1387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8178,6 +8562,7 @@
   <autoFilter ref="A1:O1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42036,522 +42421,672 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="22">
         <v>0.59999999999999987</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>7.5892857142857137E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>0.10119047619047618</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="24">
         <v>77.211796246648802</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="22">
         <v>0.70238095238095233</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="23">
         <v>0.11210317460317462</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="23">
         <v>7.4735449735449752E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="24">
         <v>78.988471550762355</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="23">
         <v>0.31428571428571433</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="22">
         <v>0.7901785714285714</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <v>0.25595238095238093</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
         <v>58.083570334718878</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="23">
         <v>0.2412698412698413</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="22">
         <v>0.77579365079365081</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="23">
         <v>0.19841269841269837</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="24">
         <v>63.826314071172057</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="23">
         <v>8.5714285714285729E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>0.13392857142857142</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="22">
         <v>0.6428571428571429</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
         <v>74.534161490683232</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="23">
         <v>5.4761904761904769E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="23">
         <v>0.11210317460317462</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="22">
         <v>0.72023809523809523</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="24">
         <v>81.189890404831132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="23">
         <v>59.999999999999986</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="23">
         <v>79.017857142857139</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="23">
         <v>64.285714285714292</v>
       </c>
-      <c r="F9" s="4">
-        <v>73.280423280423292</v>
-      </c>
-      <c r="J9">
+      <c r="F9" s="25">
+        <v>67.767857142857139</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="23">
         <v>70.238095238095227</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="23">
         <v>77.579365079365076</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="23">
         <v>72.023809523809518</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="25">
         <v>73.481298081174302</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="F13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="22">
         <v>0.77857142857142847</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="23">
         <v>0.11124999999999996</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="23">
         <v>7.9285714285714279E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="24">
         <v>80.339045513174867</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="22">
         <v>0.79492063492063492</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="23">
         <v>7.6230158730158731E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="23">
         <v>4.9047619047619034E-2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="24">
         <v>86.38578636422443</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="23">
         <v>0.16571428571428573</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="22">
         <v>0.7628571428571429</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="23">
         <v>0.23857142857142855</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
         <v>65.361077111383111</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="23">
         <v>0.14879365079365076</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="22">
         <v>0.79101190476190464</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="23">
         <v>0.18111111111111108</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="24">
         <v>70.568306127000668</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23">
         <v>5.571428571428573E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>0.12589285714285714</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="22">
         <v>0.68214285714285705</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="24">
         <v>78.974571015091996</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="23">
         <v>5.3238095238095251E-2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="23">
         <v>0.13275793650793649</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="22">
         <v>0.76592592592592612</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="24">
         <v>80.460999954144569</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="23">
         <v>77.857142857142847</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="23">
         <v>76.285714285714292</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="23">
         <v>68.214285714285708</v>
       </c>
-      <c r="F17" s="4">
-        <v>78.395282186948862</v>
-      </c>
-      <c r="J17">
+      <c r="F17" s="25">
+        <v>74.119047619047606</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="23">
         <v>79.492063492063494</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="23">
         <v>79.101190476190467</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="23">
         <v>76.592592592592609</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="25">
         <v>78.57765996563451</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="F21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="22">
         <v>0.7717142857142858</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="23">
         <v>8.0476190476190479E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="23">
         <v>7.1031746031746043E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="24">
         <v>83.589223389440022</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="22">
         <v>0.97616931216931235</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="23">
         <v>1.0343915343915338E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="23">
         <v>1.033509700176367E-2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="24">
         <v>97.925560806280103</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="23">
         <v>0.13704761904761914</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="22">
         <v>0.78386904761904763</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="23">
         <v>0.18500000000000005</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="24">
         <v>70.87957630493986</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="23">
         <v>1.5259259259259255E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="22">
         <v>0.97532407407407407</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="23">
         <v>3.493827160493828E-2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="24">
         <v>95.105170810397595</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="23">
         <v>9.123809523809516E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="23">
         <v>0.13565476190476186</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="22">
         <v>0.74396825396825383</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="24">
         <v>76.629730602435245</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="23">
         <v>8.5185185185185173E-3</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="23">
         <v>1.4332010582010583E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="22">
         <v>0.95412698412698393</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="24">
         <v>97.661099790819051</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="26">
         <v>77.171428571428578</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="26">
         <v>78.386904761904759</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="26">
         <v>74.396825396825378</v>
       </c>
-      <c r="F25" s="4">
-        <v>96.85401234567901</v>
-      </c>
-      <c r="J25">
+      <c r="F25" s="27">
+        <v>76.651719576719572</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="26">
         <v>97.616931216931235</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="26">
         <v>97.532407407407405</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="26">
         <v>95.41269841269839</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="28">
         <v>96.875084527498629</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A6:A8"/>
@@ -42560,14 +43095,611 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.10911304082262396</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9.1357667628379963E-2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="34">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.10941653896157671</v>
+      </c>
+      <c r="L7" s="34">
+        <v>9.1162428852920183E-2</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.10911304082262396</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>8.5087875182818658E-14</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0.10941653896157671</v>
+      </c>
+      <c r="K8" s="34">
+        <v>1</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.22117846301415736</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="32">
+        <v>9.1357667628379963E-2</v>
+      </c>
+      <c r="D9" s="33">
+        <v>8.5087875182818658E-14</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="34">
+        <v>9.1162428852920183E-2</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.22117846301415736</v>
+      </c>
+      <c r="L9" s="34">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.10947722499234211</v>
+      </c>
+      <c r="E15" s="32">
+        <v>9.1506303541128917E-2</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="34">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34">
+        <v>0.25585172369068165</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0.85512330350816912</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.10947722499234211</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>8.6150724896200906E-14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0.25585172369068165</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="35">
+        <v>3.3180763002265924E-3</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="32">
+        <v>9.1506303541128917E-2</v>
+      </c>
+      <c r="D17" s="33">
+        <v>8.6150724896200906E-14</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0.85512330350816912</v>
+      </c>
+      <c r="K17" s="35">
+        <v>3.3180763002265924E-3</v>
+      </c>
+      <c r="L17" s="34">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.10929515328132222</v>
+      </c>
+      <c r="E23" s="32">
+        <v>9.1299985261016986E-2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0.25577002714792502</v>
+      </c>
+      <c r="L23" s="34">
+        <v>0.10048333285904035</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0.10929515328132222</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33">
+        <v>8.4755539325322942E-14</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0.25577002714792502</v>
+      </c>
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="35">
+        <v>1.5530595855300269E-8</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="32">
+        <v>9.1299985261016986E-2</v>
+      </c>
+      <c r="D25" s="33">
+        <v>8.4755539325322942E-14</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0.10048333285904035</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1.5530595855300269E-8</v>
+      </c>
+      <c r="L25" s="34">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PaperNeural/ResultsControlFinal.xlsx
+++ b/PaperNeural/ResultsControlFinal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,7 @@
           </rPr>
           <t xml:space="preserve">
  1 - Test to check normallity: One-sample Kolmogorov-Smirnov test. Conclusion: all data are not normal.
-2 - Mann-Whitney U
-    1. compares two independent groups on a DV measure with rank-ordered (ordinal) data.
-    2. nonparametric equivalent to a t-test.
-3 - Check step 2 with Adriano O.</t>
+2 - Two-sample Kolmogorov-Smirnov test.</t>
         </r>
       </text>
     </comment>
@@ -101,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -673,9 +670,6 @@
     <t>t-SNE (perp 17-51)</t>
   </si>
   <si>
-    <t>The Wilcoxon rank sum test is equivalent to the Mann-Whitney U-test.</t>
-  </si>
-  <si>
     <t>t-SNE</t>
   </si>
   <si>
@@ -732,12 +726,33 @@
       <t>DBS</t>
     </r>
   </si>
+  <si>
+    <t>Two-sample Kolmogorov-Smirnov test</t>
+  </si>
+  <si>
+    <t>N Samples</t>
+  </si>
+  <si>
+    <t>Test (in samples)</t>
+  </si>
+  <si>
+    <t>Cross-Validation (in samples)</t>
+  </si>
+  <si>
+    <t>Test (%)</t>
+  </si>
+  <si>
+    <t>Cross-Validation (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -836,6 +851,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,7 +1022,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1021,14 +1044,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,29 +1076,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1392,7 +1419,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42419,39 +42446,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M25"/>
+  <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="A2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="H2" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -42468,25 +42502,25 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -42516,138 +42550,138 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="27" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>0.59999999999999987</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="16">
         <v>7.5892857142857137E-2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="16">
         <v>0.10119047619047618</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="17">
         <v>77.211796246648802</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="15">
         <v>0.70238095238095233</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="16">
         <v>0.11210317460317462</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="16">
         <v>7.4735449735449752E-2</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="17">
         <v>78.988471550762355</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>0.31428571428571433</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="15">
         <v>0.7901785714285714</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="16">
         <v>0.25595238095238093</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="17">
         <v>58.083570334718878</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="16">
         <v>0.2412698412698413</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="15">
         <v>0.77579365079365081</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="16">
         <v>0.19841269841269837</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="17">
         <v>63.826314071172057</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="16">
         <v>8.5714285714285729E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <v>0.13392857142857142</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="15">
         <v>0.6428571428571429</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="17">
         <v>74.534161490683232</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="16">
         <v>5.4761904761904769E-2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="16">
         <v>0.11210317460317462</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="15">
         <v>0.72023809523809523</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="17">
         <v>81.189890404831132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <v>59.999999999999986</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>79.017857142857139</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="16">
         <v>64.285714285714292</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <v>67.767857142857139</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="23">
+      <c r="J9" s="16">
         <v>70.238095238095227</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="16">
         <v>77.579365079365076</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="16">
         <v>72.023809523809518</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="18">
         <v>73.481298081174302</v>
       </c>
     </row>
@@ -42680,25 +42714,25 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -42728,138 +42762,138 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="27" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="15">
         <v>0.77857142857142847</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="16">
         <v>0.11124999999999996</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="16">
         <v>7.9285714285714279E-2</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="17">
         <v>80.339045513174867</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="15">
         <v>0.79492063492063492</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="16">
         <v>7.6230158730158731E-2</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="16">
         <v>4.9047619047619034E-2</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="17">
         <v>86.38578636422443</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="16">
         <v>0.16571428571428573</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="15">
         <v>0.7628571428571429</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="16">
         <v>0.23857142857142855</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="17">
         <v>65.361077111383111</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="16">
         <v>0.14879365079365076</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="15">
         <v>0.79101190476190464</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="16">
         <v>0.18111111111111108</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="17">
         <v>70.568306127000668</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="16">
         <v>5.571428571428573E-2</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="16">
         <v>0.12589285714285714</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="15">
         <v>0.68214285714285705</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="17">
         <v>78.974571015091996</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="16">
         <v>5.3238095238095251E-2</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="16">
         <v>0.13275793650793649</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="15">
         <v>0.76592592592592612</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="17">
         <v>80.460999954144569</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="23">
+      <c r="C17" s="16">
         <v>77.857142857142847</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="16">
         <v>76.285714285714292</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="16">
         <v>68.214285714285708</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="18">
         <v>74.119047619047606</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="23">
+      <c r="J17" s="16">
         <v>79.492063492063494</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="16">
         <v>79.101190476190467</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="16">
         <v>76.592592592592609</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="18">
         <v>78.57765996563451</v>
       </c>
     </row>
@@ -42892,25 +42926,25 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="21" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -42940,143 +42974,861 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="27" t="s">
         <v>173</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="15">
         <v>0.7717142857142858</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="16">
         <v>8.0476190476190479E-2</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="16">
         <v>7.1031746031746043E-2</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="17">
         <v>83.589223389440022</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="15">
         <v>0.97616931216931235</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="16">
         <v>1.0343915343915338E-2</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="16">
         <v>1.033509700176367E-2</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="17">
         <v>97.925560806280103</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="16">
         <v>0.13704761904761914</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="15">
         <v>0.78386904761904763</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="16">
         <v>0.18500000000000005</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="17">
         <v>70.87957630493986</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="16">
         <v>1.5259259259259255E-2</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="15">
         <v>0.97532407407407407</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="16">
         <v>3.493827160493828E-2</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="17">
         <v>95.105170810397595</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="16">
         <v>9.123809523809516E-2</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="16">
         <v>0.13565476190476186</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="15">
         <v>0.74396825396825383</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="17">
         <v>76.629730602435245</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="16">
         <v>8.5185185185185173E-3</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="16">
         <v>1.4332010582010583E-2</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="15">
         <v>0.95412698412698393</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="17">
         <v>97.661099790819051</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="26">
+      <c r="C25" s="19">
         <v>77.171428571428578</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="19">
         <v>78.386904761904759</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="19">
         <v>74.396825396825378</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="20">
         <v>76.651719576719572</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="26">
+      <c r="J25" s="19">
         <v>97.616931216931235</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="19">
         <v>97.532407407407405</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="19">
         <v>95.41269841269839</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="21">
         <v>96.875084527498629</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="H27" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="H28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>45</v>
+      </c>
+      <c r="K28" s="3">
+        <v>72</v>
+      </c>
+      <c r="L28" s="3">
+        <v>54</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="37">
+        <f>C6*C28</f>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="D31" s="39">
+        <f t="shared" ref="D31:E31" si="0">D6*D28</f>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="0"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="F31" s="17">
+        <f>SUM(C31:E31)</f>
+        <v>4.2142857142857135</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="37">
+        <f>J6*J28</f>
+        <v>31.607142857142854</v>
+      </c>
+      <c r="K31" s="39">
+        <f t="shared" ref="K31:L31" si="1">K6*K28</f>
+        <v>8.071428571428573</v>
+      </c>
+      <c r="L31" s="39">
+        <f t="shared" si="1"/>
+        <v>4.0357142857142865</v>
+      </c>
+      <c r="M31" s="17">
+        <f>SUM(J31:L31)</f>
+        <v>43.714285714285715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="38">
+        <f>C7*C28</f>
+        <v>1.5714285714285716</v>
+      </c>
+      <c r="D32" s="37">
+        <f t="shared" ref="D32:E32" si="2">D7*D28</f>
+        <v>6.3214285714285712</v>
+      </c>
+      <c r="E32" s="38">
+        <f t="shared" si="2"/>
+        <v>1.5357142857142856</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" ref="F32:F33" si="3">SUM(C32:E32)</f>
+        <v>9.428571428571427</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="38">
+        <f>J7*J28</f>
+        <v>10.857142857142858</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" ref="K32:L32" si="4">K7*K28</f>
+        <v>55.857142857142861</v>
+      </c>
+      <c r="L32" s="38">
+        <f t="shared" si="4"/>
+        <v>10.714285714285712</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" ref="M32:M33" si="5">SUM(J32:L32)</f>
+        <v>77.428571428571431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="39">
+        <f>C8*C28</f>
+        <v>0.42857142857142866</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" ref="D33:E33" si="6">D8*D28</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428577</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="3"/>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="39">
+        <f>J8*J28</f>
+        <v>2.4642857142857144</v>
+      </c>
+      <c r="K33" s="39">
+        <f t="shared" ref="K33:L33" si="7">K8*K28</f>
+        <v>8.071428571428573</v>
+      </c>
+      <c r="L33" s="37">
+        <f t="shared" si="7"/>
+        <v>38.892857142857146</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="5"/>
+        <v>49.428571428571431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18">
+        <f>SUM(C31,D32,E33)</f>
+        <v>13.178571428571427</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18">
+        <f>SUM(J31,K32,L33)</f>
+        <v>126.35714285714286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="37">
+        <f>C14*C28</f>
+        <v>3.8928571428571423</v>
+      </c>
+      <c r="D39" s="39">
+        <f t="shared" ref="D39:E39" si="8">D14*D28</f>
+        <v>0.88999999999999968</v>
+      </c>
+      <c r="E39" s="39">
+        <f t="shared" si="8"/>
+        <v>0.47571428571428565</v>
+      </c>
+      <c r="F39" s="17">
+        <f>SUM(C39:E39)</f>
+        <v>5.258571428571428</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="37">
+        <f>J14*J28</f>
+        <v>35.771428571428572</v>
+      </c>
+      <c r="K39" s="39">
+        <f t="shared" ref="K39:L39" si="9">K14*K28</f>
+        <v>5.4885714285714284</v>
+      </c>
+      <c r="L39" s="39">
+        <f t="shared" si="9"/>
+        <v>2.6485714285714277</v>
+      </c>
+      <c r="M39" s="17">
+        <f>SUM(J39:L39)</f>
+        <v>43.908571428571427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="38">
+        <f>C15*C28</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="D40" s="37">
+        <f t="shared" ref="D40:E40" si="10">D15*D28</f>
+        <v>6.1028571428571432</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" si="10"/>
+        <v>1.4314285714285713</v>
+      </c>
+      <c r="F40" s="17">
+        <f t="shared" ref="F40:F41" si="11">SUM(C40:E40)</f>
+        <v>8.362857142857143</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="38">
+        <f>J15*J28</f>
+        <v>6.695714285714284</v>
+      </c>
+      <c r="K40" s="37">
+        <f t="shared" ref="K40:L40" si="12">K15*K28</f>
+        <v>56.952857142857134</v>
+      </c>
+      <c r="L40" s="38">
+        <f t="shared" si="12"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" ref="M40:M41" si="13">SUM(J40:L40)</f>
+        <v>73.428571428571416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="39">
+        <f>C16*C28</f>
+        <v>0.27857142857142864</v>
+      </c>
+      <c r="D41" s="39">
+        <f t="shared" ref="D41:E41" si="14">D16*D28</f>
+        <v>1.0071428571428571</v>
+      </c>
+      <c r="E41" s="37">
+        <f t="shared" si="14"/>
+        <v>4.0928571428571425</v>
+      </c>
+      <c r="F41" s="17">
+        <f t="shared" si="11"/>
+        <v>5.3785714285714281</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="39">
+        <f>J16*J28</f>
+        <v>2.3957142857142864</v>
+      </c>
+      <c r="K41" s="39">
+        <f t="shared" ref="K41:L41" si="15">K16*K28</f>
+        <v>9.5585714285714278</v>
+      </c>
+      <c r="L41" s="37">
+        <f t="shared" si="15"/>
+        <v>41.360000000000014</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" si="13"/>
+        <v>53.314285714285731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18">
+        <f>SUM(C39,D40,E41)</f>
+        <v>14.088571428571427</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18">
+        <f>SUM(J39,K40,L41)</f>
+        <v>134.08428571428573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="4"/>
+      <c r="H45" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="37">
+        <f>C22*C28</f>
+        <v>3.858571428571429</v>
+      </c>
+      <c r="D47" s="39">
+        <f t="shared" ref="D47:E47" si="16">D22*D28</f>
+        <v>0.64380952380952383</v>
+      </c>
+      <c r="E47" s="39">
+        <f t="shared" si="16"/>
+        <v>0.42619047619047623</v>
+      </c>
+      <c r="F47" s="17">
+        <f>SUM(C47:E47)</f>
+        <v>4.9285714285714297</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="37">
+        <f>J22*J28</f>
+        <v>43.927619047619054</v>
+      </c>
+      <c r="K47" s="39">
+        <f t="shared" ref="K47:L47" si="17">K22*K28</f>
+        <v>0.74476190476190429</v>
+      </c>
+      <c r="L47" s="39">
+        <f t="shared" si="17"/>
+        <v>0.5580952380952382</v>
+      </c>
+      <c r="M47" s="17">
+        <f>SUM(J47:L47)</f>
+        <v>45.230476190476196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="38">
+        <f>C23*C28</f>
+        <v>0.68523809523809565</v>
+      </c>
+      <c r="D48" s="37">
+        <f t="shared" ref="D48:E48" si="18">D23*D28</f>
+        <v>6.2709523809523811</v>
+      </c>
+      <c r="E48" s="38">
+        <f t="shared" si="18"/>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" ref="F48:F49" si="19">SUM(C48:E48)</f>
+        <v>8.0661904761904779</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="38">
+        <f>J23*J28</f>
+        <v>0.68666666666666654</v>
+      </c>
+      <c r="K48" s="37">
+        <f t="shared" ref="K48:L48" si="20">K23*K28</f>
+        <v>70.223333333333329</v>
+      </c>
+      <c r="L48" s="38">
+        <f t="shared" si="20"/>
+        <v>1.8866666666666672</v>
+      </c>
+      <c r="M48" s="17">
+        <f t="shared" ref="M48:M49" si="21">SUM(J48:L48)</f>
+        <v>72.796666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="39">
+        <f>C24*C28</f>
+        <v>0.45619047619047581</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" ref="D49:E49" si="22">D24*D28</f>
+        <v>1.0852380952380949</v>
+      </c>
+      <c r="E49" s="37">
+        <f t="shared" si="22"/>
+        <v>4.4638095238095232</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="19"/>
+        <v>6.0052380952380942</v>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="39">
+        <f>J24*J28</f>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="K49" s="39">
+        <f t="shared" ref="K49:L49" si="23">K24*K28</f>
+        <v>1.0319047619047619</v>
+      </c>
+      <c r="L49" s="37">
+        <f t="shared" si="23"/>
+        <v>51.522857142857134</v>
+      </c>
+      <c r="M49" s="17">
+        <f t="shared" si="21"/>
+        <v>52.938095238095229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="21">
+        <f>SUM(C47,D48,E49)</f>
+        <v>14.593333333333334</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="21">
+        <f>SUM(J47,K48,L49)</f>
+        <v>165.67380952380952</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="40">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="J12:L12"/>
@@ -43100,6 +43852,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C32" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -43107,39 +43862,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="18" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -43157,24 +43916,24 @@
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="4"/>
       <c r="H5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -43187,7 +43946,7 @@
         <v>175</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4"/>
       <c r="H6" s="2"/>
@@ -43199,96 +43958,96 @@
         <v>175</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
-        <v>0.10911304082262396</v>
-      </c>
-      <c r="E7" s="32">
-        <v>9.1357667628379963E-2</v>
+      <c r="D7" s="22">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9.9861933019997434E-2</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="34">
-        <v>0.10941653896157671</v>
-      </c>
-      <c r="L7" s="34">
-        <v>9.1162428852920183E-2</v>
+      <c r="K7" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="L7" s="24">
+        <v>9.9861933019997434E-2</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="32">
-        <v>0.10911304082262396</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="C8" s="22">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="D8" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="33">
-        <v>8.5087875182818658E-14</v>
+      <c r="E8" s="36">
+        <v>0.32165263610037453</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="34">
-        <v>0.10941653896157671</v>
-      </c>
-      <c r="K8" s="34">
+      <c r="J8" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="K8" s="24">
         <v>1</v>
       </c>
-      <c r="L8" s="34">
-        <v>0.22117846301415736</v>
+      <c r="L8" s="25">
+        <v>7.9959373466279558E-18</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="32">
-        <v>9.1357667628379963E-2</v>
-      </c>
-      <c r="D9" s="33">
-        <v>8.5087875182818658E-14</v>
-      </c>
-      <c r="E9" s="32">
+        <v>177</v>
+      </c>
+      <c r="C9" s="22">
+        <v>9.9861933019997434E-2</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.32165263610037453</v>
+      </c>
+      <c r="E9" s="22">
         <v>1</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="34">
-        <v>9.1162428852920183E-2</v>
-      </c>
-      <c r="K9" s="34">
-        <v>0.22117846301415736</v>
-      </c>
-      <c r="L9" s="34">
+        <v>177</v>
+      </c>
+      <c r="J9" s="24">
+        <v>9.9861933019997434E-2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>7.9959373466279558E-18</v>
+      </c>
+      <c r="L9" s="24">
         <v>1</v>
       </c>
       <c r="M9" s="7"/>
@@ -43337,24 +44096,24 @@
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="4"/>
       <c r="H13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -43367,7 +44126,7 @@
         <v>175</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="2"/>
@@ -43379,96 +44138,96 @@
         <v>175</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="32">
-        <v>0.10947722499234211</v>
-      </c>
-      <c r="E15" s="32">
-        <v>9.1506303541128917E-2</v>
+      <c r="D15" s="22">
+        <v>0.2504735531086395</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.81252111873795552</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="24">
         <v>1</v>
       </c>
-      <c r="K15" s="34">
-        <v>0.25585172369068165</v>
-      </c>
-      <c r="L15" s="34">
-        <v>0.85512330350816912</v>
+      <c r="K15" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="L15" s="24">
+        <v>9.9861933019997434E-2</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="32">
-        <v>0.10947722499234211</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="22">
+        <v>0.2504735531086395</v>
+      </c>
+      <c r="D16" s="22">
         <v>1</v>
       </c>
-      <c r="E16" s="33">
-        <v>8.6150724896200906E-14</v>
+      <c r="E16" s="23">
+        <v>2.3329227022357655E-2</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="34">
-        <v>0.25585172369068165</v>
-      </c>
-      <c r="K16" s="34">
+      <c r="J16" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="K16" s="24">
         <v>1</v>
       </c>
-      <c r="L16" s="35">
-        <v>3.3180763002265924E-3</v>
+      <c r="L16" s="25">
+        <v>7.9959373466279558E-18</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="32">
-        <v>9.1506303541128917E-2</v>
-      </c>
-      <c r="D17" s="33">
-        <v>8.6150724896200906E-14</v>
-      </c>
-      <c r="E17" s="32">
+        <v>177</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.81252111873795552</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2.3329227022357655E-2</v>
+      </c>
+      <c r="E17" s="22">
         <v>1</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0.85512330350816912</v>
-      </c>
-      <c r="K17" s="35">
-        <v>3.3180763002265924E-3</v>
-      </c>
-      <c r="L17" s="34">
+        <v>177</v>
+      </c>
+      <c r="J17" s="24">
+        <v>9.9861933019997434E-2</v>
+      </c>
+      <c r="K17" s="25">
+        <v>7.9959373466279558E-18</v>
+      </c>
+      <c r="L17" s="24">
         <v>1</v>
       </c>
       <c r="M17" s="7"/>
@@ -43517,24 +44276,24 @@
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="4"/>
       <c r="H21" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="J21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -43547,7 +44306,7 @@
         <v>175</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="4"/>
       <c r="H22" s="2"/>
@@ -43559,96 +44318,96 @@
         <v>175</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="22">
         <v>1</v>
       </c>
-      <c r="D23" s="32">
-        <v>0.10929515328132222</v>
-      </c>
-      <c r="E23" s="32">
-        <v>9.1299985261016986E-2</v>
+      <c r="D23" s="22">
+        <v>0.2504735531086395</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.10810921736533094</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="24">
         <v>1</v>
       </c>
-      <c r="K23" s="34">
-        <v>0.25577002714792502</v>
-      </c>
-      <c r="L23" s="34">
-        <v>0.10048333285904035</v>
+      <c r="K23" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="L23" s="24">
+        <v>9.9861933019997434E-2</v>
       </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="32">
-        <v>0.10929515328132222</v>
-      </c>
-      <c r="D24" s="32">
+      <c r="C24" s="22">
+        <v>0.2504735531086395</v>
+      </c>
+      <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="33">
-        <v>8.4755539325322942E-14</v>
+      <c r="E24" s="23">
+        <v>3.7026628405321966E-8</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="34">
-        <v>0.25577002714792502</v>
-      </c>
-      <c r="K24" s="34">
+      <c r="J24" s="24">
+        <v>0.1055501400236657</v>
+      </c>
+      <c r="K24" s="24">
         <v>1</v>
       </c>
-      <c r="L24" s="35">
-        <v>1.5530595855300269E-8</v>
+      <c r="L24" s="25">
+        <v>7.9959373466279558E-18</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="32">
-        <v>9.1299985261016986E-2</v>
-      </c>
-      <c r="D25" s="33">
-        <v>8.4755539325322942E-14</v>
-      </c>
-      <c r="E25" s="32">
+        <v>177</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.10810921736533094</v>
+      </c>
+      <c r="D25" s="23">
+        <v>3.7026628405321966E-8</v>
+      </c>
+      <c r="E25" s="22">
         <v>1</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="34">
-        <v>0.10048333285904035</v>
-      </c>
-      <c r="K25" s="35">
-        <v>1.5530595855300269E-8</v>
-      </c>
-      <c r="L25" s="34">
+        <v>177</v>
+      </c>
+      <c r="J25" s="24">
+        <v>9.9861933019997434E-2</v>
+      </c>
+      <c r="K25" s="25">
+        <v>7.9959373466279558E-18</v>
+      </c>
+      <c r="L25" s="24">
         <v>1</v>
       </c>
       <c r="M25" s="7"/>
